--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1965.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1965.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.022*"import" + 0.019*"exchange" + 0.016*"may" + 0.014*"foreign" + 0.014*"bank" + 0.013*"payment" + 0.013*"account" + 0.012*"currency" + 0.012*"export" + 0.012*"country"</t>
-  </si>
-  <si>
-    <t>0.004*"import" + 0.004*"exchange" + 0.003*"payment" + 0.003*"foreign" + 0.003*"may" + 0.003*"bank" + 0.003*"export" + 0.002*"account" + 0.002*"country" + 0.002*"currency"</t>
-  </si>
-  <si>
-    <t>0.001*"may" + 0.001*"import" + 0.001*"bank" + 0.001*"exchange" + 0.001*"country" + 0.001*"payment" + 0.001*"currency" + 0.001*"export" + 0.001*"account" + 0.001*"license"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"may" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"payment" + 0.001*"country" + 0.001*"bank" + 0.001*"currency" + 0.001*"export" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.004*"import" + 0.003*"exchange" + 0.003*"may" + 0.003*"country" + 0.003*"account" + 0.003*"payment" + 0.002*"bank" + 0.002*"foreign" + 0.002*"export" + 0.002*"currency"</t>
+    <t>0.037*"import" + 0.030*"exchange" + 0.025*"currency" + 0.022*"rate" + 0.021*"control" + 0.017*"payment" + 0.016*"value" + 0.012*"agreement" + 0.011*"trade" + 0.010*"ministry"</t>
+  </si>
+  <si>
+    <t>0.044*"exchange" + 0.033*"bank" + 0.032*"per" + 0.028*"foreign" + 0.023*"cent" + 0.019*"proceeds" + 0.016*"rom" + 0.016*"invisibles" + 0.015*"must" + 0.014*"payment"</t>
+  </si>
+  <si>
+    <t>0.056*"account" + 0.030*"capital" + 0.027*"nonresident" + 0.025*"transfer" + 0.024*"may" + 0.017*"foreign" + 0.015*"investment" + 0.014*"convertible" + 0.013*"currency" + 0.012*"make"</t>
+  </si>
+  <si>
+    <t>0.069*"import" + 0.036*"license" + 0.033*"export" + 0.032*"country" + 0.028*"good" + 0.023*"franc" + 0.018*"french" + 0.017*"area" + 0.015*"list" + 0.014*"issue"</t>
+  </si>
+  <si>
+    <t>0.037*"may" + 0.035*"sterling" + 0.030*"area" + 0.020*"resident" + 0.018*"country" + 0.017*"take" + 0.017*"currency" + 0.015*"account" + 0.014*"payment" + 0.013*"dollar"</t>
   </si>
 </sst>
 </file>
